--- a/BioSTEAM 2.x.x/biorefineries/HP/analyses/0_baseline.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/HP/analyses/0_baseline.xlsx
@@ -94,43 +94,43 @@
     <t>Check [10^6 $]</t>
   </si>
   <si>
+    <t>ammonia_fresh [10^6 $/yr]</t>
+  </si>
+  <si>
+    <t>feedstock [10^6 $/yr]</t>
+  </si>
+  <si>
+    <t>CSL_fresh [10^6 $/yr]</t>
+  </si>
+  <si>
+    <t>lime_fresh [10^6 $/yr]</t>
+  </si>
+  <si>
+    <t>system_makeup_water [10^6 $/yr]</t>
+  </si>
+  <si>
+    <t>aerobic_caustic [10^6 $/yr]</t>
+  </si>
+  <si>
+    <t>boiler_chems [10^6 $/yr]</t>
+  </si>
+  <si>
+    <t>baghouse_bag [10^6 $/yr]</t>
+  </si>
+  <si>
+    <t>enzyme [10^6 $/yr]</t>
+  </si>
+  <si>
+    <t>natural_gas [10^6 $/yr]</t>
+  </si>
+  <si>
+    <t>sulfuric_acid_fresh [10^6 $/yr]</t>
+  </si>
+  <si>
+    <t>cooling_tower_chems [10^6 $/yr]</t>
+  </si>
+  <si>
     <t>sulfuric_acid_fresh2 [10^6 $/yr]</t>
-  </si>
-  <si>
-    <t>cooling_tower_chems [10^6 $/yr]</t>
-  </si>
-  <si>
-    <t>ammonia_fresh [10^6 $/yr]</t>
-  </si>
-  <si>
-    <t>CSL_fresh [10^6 $/yr]</t>
-  </si>
-  <si>
-    <t>lime_fresh [10^6 $/yr]</t>
-  </si>
-  <si>
-    <t>aerobic_caustic [10^6 $/yr]</t>
-  </si>
-  <si>
-    <t>system_makeup_water [10^6 $/yr]</t>
-  </si>
-  <si>
-    <t>boiler_chems [10^6 $/yr]</t>
-  </si>
-  <si>
-    <t>baghouse_bag [10^6 $/yr]</t>
-  </si>
-  <si>
-    <t>enzyme [10^6 $/yr]</t>
-  </si>
-  <si>
-    <t>feedstock [10^6 $/yr]</t>
-  </si>
-  <si>
-    <t>natural_gas [10^6 $/yr]</t>
-  </si>
-  <si>
-    <t>sulfuric_acid_fresh [10^6 $/yr]</t>
   </si>
   <si>
     <t>Fermentation lime ratio [%]</t>
@@ -767,34 +767,34 @@
         <v>53</v>
       </c>
       <c r="B4">
-        <v>1.342129282886852</v>
+        <v>1.346970673203007</v>
       </c>
       <c r="C4">
-        <v>0.02748572626937896</v>
+        <v>0.02762182620108775</v>
       </c>
       <c r="D4">
-        <v>0.9996159790810628</v>
+        <v>0.9620844785469408</v>
       </c>
       <c r="E4">
-        <v>1.342644883391154</v>
+        <v>1.40005446505226</v>
       </c>
       <c r="F4">
-        <v>0.02747517117551934</v>
+        <v>0.02657453025718774</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.6690803175243606</v>
       </c>
       <c r="H4">
-        <v>694.7490088814023</v>
+        <v>703.411463628374</v>
       </c>
       <c r="I4">
-        <v>199.3841496856185</v>
+        <v>200.7376173607572</v>
       </c>
       <c r="J4">
-        <v>166.5045946809022</v>
+        <v>167.5654607711733</v>
       </c>
       <c r="K4">
-        <v>286.9718064764382</v>
+        <v>289.4133379100626</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>82.66937047153856</v>
+        <v>82.66937045604533</v>
       </c>
       <c r="O4">
-        <v>456.172620872478</v>
+        <v>460.9024667087736</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -815,64 +815,64 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>-370.5849423716862</v>
+        <v>-375.0340092227243</v>
       </c>
       <c r="S4">
-        <v>0.002388220410682237</v>
+        <v>0.0002947832196165155</v>
       </c>
       <c r="T4">
-        <v>1.373382560338634E-05</v>
+        <v>0.006547536261</v>
       </c>
       <c r="U4">
-        <v>0.0002947832196165155</v>
+        <v>5.471501646174951E-05</v>
       </c>
       <c r="V4">
-        <v>5.399771481202552E-05</v>
+        <v>0.004561882245654103</v>
       </c>
       <c r="W4">
-        <v>0.004488579871154938</v>
+        <v>3.267095839256449E-05</v>
       </c>
       <c r="X4">
-        <v>0.001193914454400604</v>
+        <v>0.001194082535601504</v>
       </c>
       <c r="Y4">
-        <v>3.33332594419751E-05</v>
+        <v>1.879698521050349E-06</v>
       </c>
       <c r="Z4">
-        <v>1.872890775826878E-06</v>
+        <v>1.291428461665068E-05</v>
       </c>
       <c r="AA4">
-        <v>1.286751266975123E-05</v>
+        <v>0.003543296856379546</v>
       </c>
       <c r="AB4">
-        <v>0.003543296856379546</v>
+        <v>0.001182941635253393</v>
       </c>
       <c r="AC4">
-        <v>0.006547536261</v>
+        <v>0.0001877794398684067</v>
       </c>
       <c r="AD4">
-        <v>0.001172324063419495</v>
+        <v>1.379239255165709E-05</v>
       </c>
       <c r="AE4">
-        <v>0.0001877794398684067</v>
+        <v>0.002427853456562049</v>
       </c>
       <c r="AF4">
-        <v>0.9952261145073237</v>
+        <v>0.9953028554115413</v>
       </c>
       <c r="AG4">
-        <v>-166.4834753766555</v>
+        <v>-167.5442069075544</v>
       </c>
       <c r="AH4">
-        <v>0.03688939799910716</v>
+        <v>0.03720578974324208</v>
       </c>
       <c r="AI4">
-        <v>-0.0002450664224075717</v>
+        <v>-0.0002484213867109287</v>
       </c>
       <c r="AJ4">
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>-286.935407211284</v>
+        <v>-289.3766289630928</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.7013349130725144</v>
+        <v>0.7038841858150293</v>
       </c>
       <c r="AO4">
         <v>0.1627939284800316</v>
@@ -893,25 +893,25 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>-0.7114417477649908</v>
+        <v>-0.7144756418337148</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>26778.91876477628</v>
+        <v>26984.80610848404</v>
       </c>
       <c r="AU4">
-        <v>-26778.91876477628</v>
+        <v>-26984.80610848404</v>
       </c>
       <c r="AV4">
-        <v>14.77874968790473</v>
+        <v>14.89237479515018</v>
       </c>
       <c r="AW4">
-        <v>-14.77874968790473</v>
+        <v>-14.89237479515018</v>
       </c>
       <c r="AX4">
-        <v>-0.03801942989230156</v>
+        <v>-0.04010729305446148</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -919,34 +919,34 @@
         <v>54</v>
       </c>
       <c r="B5">
-        <v>2.02211319926159</v>
+        <v>1.339739193436792</v>
       </c>
       <c r="C5">
-        <v>0.02748504802665849</v>
+        <v>0.02762108137209483</v>
       </c>
       <c r="D5">
-        <v>0.9996155315412573</v>
+        <v>0.9620844591456564</v>
       </c>
       <c r="E5">
-        <v>2.022890923124732</v>
+        <v>1.392537859127965</v>
       </c>
       <c r="F5">
-        <v>0.02747448089260521</v>
+        <v>0.02657381313289002</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.6685362188754632</v>
       </c>
       <c r="H5">
-        <v>433.1406984125576</v>
+        <v>708.4679954581921</v>
       </c>
       <c r="I5">
-        <v>198.0345680771239</v>
+        <v>198.5475253010896</v>
       </c>
       <c r="J5">
-        <v>168.4918231954167</v>
+        <v>165.4027067208396</v>
       </c>
       <c r="K5">
-        <v>434.3137049437782</v>
+        <v>287.82906098797</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>82.6694753405429</v>
+        <v>82.66995007918122</v>
       </c>
       <c r="O5">
-        <v>456.1772746476</v>
+        <v>460.9236919914651</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -967,64 +967,64 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>-223.3790611153014</v>
+        <v>-377.8372963079469</v>
       </c>
       <c r="S5">
-        <v>0.002387954071360136</v>
+        <v>0.0002947832196165155</v>
       </c>
       <c r="T5">
-        <v>1.367081267940005E-05</v>
+        <v>0.006547536261</v>
       </c>
       <c r="U5">
-        <v>0.0002947832196165155</v>
+        <v>5.471428096049131E-05</v>
       </c>
       <c r="V5">
-        <v>5.400902195416307E-05</v>
+        <v>0.004561744809903881</v>
       </c>
       <c r="W5">
-        <v>0.00448804800885046</v>
+        <v>3.725137554372094E-05</v>
       </c>
       <c r="X5">
-        <v>0.001193911837593543</v>
+        <v>0.001194081698527518</v>
       </c>
       <c r="Y5">
-        <v>3.793554066993349E-05</v>
+        <v>1.87975693043727E-06</v>
       </c>
       <c r="Z5">
-        <v>1.872903613151265E-06</v>
+        <v>1.29146859126237E-05</v>
       </c>
       <c r="AA5">
-        <v>1.286760086733132E-05</v>
+        <v>0.003543296856379546</v>
       </c>
       <c r="AB5">
-        <v>0.003543296856379546</v>
+        <v>0.001043622345324233</v>
       </c>
       <c r="AC5">
-        <v>0.006547536261</v>
+        <v>0.0001877794398684067</v>
       </c>
       <c r="AD5">
-        <v>0.001296478289517275</v>
+        <v>1.373884786023188E-05</v>
       </c>
       <c r="AE5">
-        <v>0.0001877794398684067</v>
+        <v>0.002427781328682877</v>
       </c>
       <c r="AF5">
-        <v>0.9953207047574604</v>
+        <v>0.9952040136709297</v>
       </c>
       <c r="AG5">
-        <v>-168.4704518327587</v>
+        <v>-165.3817271791449</v>
       </c>
       <c r="AH5">
-        <v>0.05557787801521497</v>
+        <v>0.03700504084894127</v>
       </c>
       <c r="AI5">
-        <v>-0.0002449445286768501</v>
+        <v>-0.0002485211228489942</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>-434.2586169548204</v>
+        <v>-287.7925529893667</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1033,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.701339720220854</v>
+        <v>0.703906058175568</v>
       </c>
       <c r="AO5">
-        <v>0.1627939284781503</v>
+        <v>0.1627939284787122</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -1045,25 +1045,25 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>-0.7081775425779426</v>
+        <v>-0.7117019114871098</v>
       </c>
       <c r="AS5">
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>26537.33890773488</v>
+        <v>26810.0265243273</v>
       </c>
       <c r="AU5">
-        <v>-26537.33890773488</v>
+        <v>-26810.0265243273</v>
       </c>
       <c r="AV5">
-        <v>14.64542659640073</v>
+        <v>14.79591743824575</v>
       </c>
       <c r="AW5">
-        <v>-14.64542659640073</v>
+        <v>-14.79591743824575</v>
       </c>
       <c r="AX5">
-        <v>1346663843.442234</v>
+        <v>-1.931581026874483</v>
       </c>
     </row>
   </sheetData>
